--- a/开支收入/2017年春季学生报名册.xlsx
+++ b/开支收入/2017年春季学生报名册.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>日期</t>
-  </si>
-  <si>
     <t>学生姓名</t>
   </si>
   <si>
@@ -36,30 +33,15 @@
     <t>班级</t>
   </si>
   <si>
-    <t>就读学校</t>
-  </si>
-  <si>
     <t>第一次缴费</t>
   </si>
   <si>
-    <t>第二次缴费</t>
-  </si>
-  <si>
     <t>实交费用</t>
   </si>
   <si>
-    <t>应缴费用</t>
-  </si>
-  <si>
-    <t>差额</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>2017.02.06</t>
-  </si>
-  <si>
     <t>徐麟知</t>
   </si>
   <si>
@@ -69,15 +51,9 @@
     <t>405班</t>
   </si>
   <si>
-    <t>实验小学</t>
-  </si>
-  <si>
     <t>语文、英语两个月</t>
   </si>
   <si>
-    <t>2017.02.12</t>
-  </si>
-  <si>
     <t>林正皓</t>
   </si>
   <si>
@@ -90,9 +66,6 @@
     <t>语文、数学一学期</t>
   </si>
   <si>
-    <t>2017.2.14</t>
-  </si>
-  <si>
     <t>况佳莉</t>
   </si>
   <si>
@@ -105,9 +78,6 @@
     <t>奥数一对二16周</t>
   </si>
   <si>
-    <t>2016.12.27</t>
-  </si>
-  <si>
     <t>张新林</t>
   </si>
   <si>
@@ -117,9 +87,6 @@
     <t>201班</t>
   </si>
   <si>
-    <t>2017.2.15</t>
-  </si>
-  <si>
     <t>梅清涵</t>
   </si>
   <si>
@@ -129,9 +96,6 @@
     <t>102班</t>
   </si>
   <si>
-    <t>2017.2.18</t>
-  </si>
-  <si>
     <t>肖月</t>
   </si>
   <si>
@@ -153,24 +117,15 @@
     <t>小三</t>
   </si>
   <si>
-    <t>都亭一小</t>
-  </si>
-  <si>
     <t>奥数8个课时，一对四</t>
   </si>
   <si>
-    <t>2017.2.19</t>
-  </si>
-  <si>
     <t>叶科江</t>
   </si>
   <si>
     <t>李再银</t>
   </si>
   <si>
-    <t>2017.2.22</t>
-  </si>
-  <si>
     <t>高梓益</t>
   </si>
   <si>
@@ -180,9 +135,6 @@
     <t>语文、英语一学期</t>
   </si>
   <si>
-    <t>2017.2.27</t>
-  </si>
-  <si>
     <t>李佳薇</t>
   </si>
   <si>
@@ -195,9 +147,6 @@
     <t>数学，英语一学期</t>
   </si>
   <si>
-    <t>2017.2.28</t>
-  </si>
-  <si>
     <t>魏浩益</t>
   </si>
   <si>
@@ -207,13 +156,7 @@
     <t>204班</t>
   </si>
   <si>
-    <t>体育路小学</t>
-  </si>
-  <si>
     <t>数学语文一个月</t>
-  </si>
-  <si>
-    <t>2017.3.3</t>
   </si>
   <si>
     <t>张子乐</t>
@@ -294,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -341,19 +284,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -363,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,12 +306,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,9 +322,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,52 +619,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="7.875" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13">
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,573 +682,367 @@
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
         <v>13277578155</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
         <v>1240</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="G4" s="5">
         <v>1240</v>
       </c>
-      <c r="K4" s="7">
-        <v>2080</v>
-      </c>
-      <c r="L4" s="7">
-        <v>840</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5">
         <v>18672083107</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5">
         <v>1680</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="G5" s="5">
         <v>1680</v>
       </c>
-      <c r="K5" s="7">
-        <v>1680</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3">
         <v>15347014991</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3">
         <v>2560</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="G6" s="3">
         <v>2560</v>
       </c>
-      <c r="K6" s="3">
-        <v>2560</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5">
         <v>13597780307</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5">
         <v>1280</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="G7" s="5">
         <v>1280</v>
       </c>
-      <c r="K7" s="7">
-        <v>1280</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="3">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
         <v>18672458214</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3">
         <v>1280</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="G8" s="5">
         <v>1280</v>
       </c>
-      <c r="K8" s="7">
-        <v>1280</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3">
         <v>13789902322</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
-        <v>400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="H9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3">
         <v>15586628000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
-        <v>400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="H10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="1">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1">
         <v>18371858142</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
         <v>360</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="G11" s="1">
         <v>360</v>
       </c>
-      <c r="K11" s="1">
-        <v>360</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="3">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3">
         <v>13126219888</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3">
         <v>2560</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="G12" s="3">
         <v>2560</v>
       </c>
-      <c r="K12" s="3">
-        <v>2560</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="H12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="3">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3">
         <v>13886759692</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3">
         <v>2080</v>
       </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="G13" s="3">
         <v>2080</v>
       </c>
-      <c r="K13" s="3">
-        <v>2080</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="3">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3">
         <v>17771754992</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
-        <v>400</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="H14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="4">
         <v>13647186191</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3">
+      <c r="E15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3">
         <v>3000</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="G15" s="3">
         <v>3000</v>
       </c>
-      <c r="K15" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="H15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="4">
         <v>18671839233</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3">
+      <c r="E16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="3">
         <v>3000</v>
       </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="G16" s="3">
         <v>3000</v>
       </c>
-      <c r="K16" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="3">
+      <c r="H16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="3">
         <v>20240</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="H17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
